--- a/exple2_MNHN-ZO-2013-152_multi-imaged_input_example.xlsx
+++ b/exple2_MNHN-ZO-2013-152_multi-imaged_input_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goe19\Documents\MNHN\ICEDIG\SPEC\DwC_examples_MS28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD58014-F3F4-4EBB-9581-7D58DC481328}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA4038-91D5-462C-B78A-709CF094B74F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{EFF9E271-C8A9-4F90-80E9-F0C92CAE7300}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EFF9E271-C8A9-4F90-80E9-F0C92CAE7300}"/>
   </bookViews>
   <sheets>
     <sheet name="multimedia.txt" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>associatedMedia</t>
   </si>
   <si>
-    <t>occurenceID</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>catalogNumber</t>
   </si>
   <si>
-    <t>scentificName</t>
-  </si>
-  <si>
     <t>StillImage</t>
   </si>
   <si>
@@ -94,6 +88,12 @@
   </si>
   <si>
     <t>http://mediaphoto.mnhn.fr/media/143202296244433EpMw3CYLIHKp9l</t>
+  </si>
+  <si>
+    <t>occurrenceID</t>
+  </si>
+  <si>
+    <t>scientificName</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,188 +461,188 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
